--- a/BaocaoExcel/Plant_05_UpdateItem.xlsx
+++ b/BaocaoExcel/Plant_05_UpdateItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A04CA5-E243-4B15-9DBB-B27F56839E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691C3FA8-F911-4097-A5BB-9B9C6BC6FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="826" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Xử lý 10.4'!$A$1:$AW$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Xử lý 10.5'!$A$1:$AW$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Xử lý 10.6'!$A$1:$AW$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Xử lý 10.7'!$A$1:$AW$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Xử lý 10.7'!$A$1:$AW$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'機能間関連図 (2)'!$A:$AW</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="222">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -668,9 +668,6 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t>Update (6) (7) (8) (9) (10)</t>
-  </si>
-  <si>
     <t xml:space="preserve">a. Update ảnh </t>
   </si>
   <si>
@@ -702,9 +699,6 @@
   </si>
   <si>
     <t>Tất Kỳ</t>
-  </si>
-  <si>
-    <t>- Dùng để quản trị viên xem, cập nhật thông tin khuyến mãi</t>
   </si>
   <si>
     <t>- Quản trị viên phải nhập tất cả các thông tin cơ bản</t>
@@ -1002,6 +996,21 @@
   </si>
   <si>
     <t>Table chứa danh sách loại mặt hàng</t>
+  </si>
+  <si>
+    <t>2709/2023</t>
+  </si>
+  <si>
+    <t>Update (1) (2) (3) (4) (5) (6) (7)</t>
+  </si>
+  <si>
+    <t>- Dùng để quản trị viên xem, cập nhật thông tin mặt hàng</t>
+  </si>
+  <si>
+    <t>Item with the same name already exists</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm đã tồn tại</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1985,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3541,6 +3550,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -19912,8 +19933,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:BF165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A97" zoomScale="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM156" sqref="AM156"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A88" zoomScale="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -19963,7 +19984,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -19981,7 +20002,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -20097,7 +20118,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -20113,7 +20134,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -21437,7 +21458,7 @@
       <c r="Y41" s="261"/>
       <c r="Z41" s="262"/>
       <c r="AA41" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB41" s="245"/>
       <c r="AC41" s="245"/>
@@ -21455,7 +21476,7 @@
       </c>
       <c r="AN41" s="281"/>
       <c r="AO41" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP41" s="285"/>
       <c r="AQ41" s="286"/>
@@ -21555,7 +21576,7 @@
       <c r="Y43" s="258"/>
       <c r="Z43" s="259"/>
       <c r="AA43" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB43" s="255"/>
       <c r="AC43" s="255"/>
@@ -21571,7 +21592,7 @@
       <c r="AK43" s="282"/>
       <c r="AL43" s="281"/>
       <c r="AM43" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN43" s="255"/>
       <c r="AO43" s="255"/>
@@ -21818,8 +21839,8 @@
         <v>1</v>
       </c>
       <c r="C49" s="355"/>
-      <c r="D49" s="358">
-        <v>43110</v>
+      <c r="D49" s="358" t="s">
+        <v>217</v>
       </c>
       <c r="E49" s="291"/>
       <c r="F49" s="291"/>
@@ -21846,7 +21867,7 @@
       <c r="Y49" s="364"/>
       <c r="Z49" s="365"/>
       <c r="AA49" s="268" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB49" s="269"/>
       <c r="AC49" s="269"/>
@@ -21929,14 +21950,14 @@
       </c>
       <c r="C51" s="370"/>
       <c r="D51" s="373">
-        <v>43230</v>
+        <v>45270</v>
       </c>
       <c r="E51" s="374"/>
       <c r="F51" s="374"/>
       <c r="G51" s="374"/>
       <c r="H51" s="375"/>
       <c r="I51" s="379" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="J51" s="380"/>
       <c r="K51" s="380"/>
@@ -21956,7 +21977,7 @@
       <c r="Y51" s="380"/>
       <c r="Z51" s="381"/>
       <c r="AA51" s="336" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB51" s="337"/>
       <c r="AC51" s="337"/>
@@ -23496,7 +23517,7 @@
       <c r="Y81" s="261"/>
       <c r="Z81" s="262"/>
       <c r="AA81" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB81" s="245"/>
       <c r="AC81" s="245"/>
@@ -23514,7 +23535,7 @@
       </c>
       <c r="AN81" s="281"/>
       <c r="AO81" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP81" s="285"/>
       <c r="AQ81" s="286"/>
@@ -23614,7 +23635,7 @@
       <c r="Y83" s="258"/>
       <c r="Z83" s="259"/>
       <c r="AA83" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB83" s="255"/>
       <c r="AC83" s="255"/>
@@ -23630,7 +23651,7 @@
       <c r="AK83" s="282"/>
       <c r="AL83" s="281"/>
       <c r="AM83" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN83" s="255"/>
       <c r="AO83" s="255"/>
@@ -23751,7 +23772,7 @@
       <c r="A86" s="21"/>
       <c r="B86" s="28"/>
       <c r="C86" s="18" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -23804,7 +23825,7 @@
       <c r="A87" s="21"/>
       <c r="B87" s="28"/>
       <c r="C87" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -25752,7 +25773,7 @@
       <c r="Y125" s="261"/>
       <c r="Z125" s="262"/>
       <c r="AA125" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB125" s="245"/>
       <c r="AC125" s="245"/>
@@ -25770,7 +25791,7 @@
       </c>
       <c r="AN125" s="281"/>
       <c r="AO125" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP125" s="285"/>
       <c r="AQ125" s="286"/>
@@ -25870,7 +25891,7 @@
       <c r="Y127" s="258"/>
       <c r="Z127" s="259"/>
       <c r="AA127" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB127" s="255"/>
       <c r="AC127" s="255"/>
@@ -25886,7 +25907,7 @@
       <c r="AK127" s="282"/>
       <c r="AL127" s="281"/>
       <c r="AM127" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN127" s="255"/>
       <c r="AO127" s="255"/>
@@ -27095,14 +27116,14 @@
       </c>
       <c r="F151" s="49"/>
       <c r="G151" s="493" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H151" s="50"/>
       <c r="I151" s="50"/>
       <c r="J151" s="50"/>
       <c r="K151" s="51"/>
       <c r="L151" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M151" s="50"/>
       <c r="N151" s="50"/>
@@ -27156,14 +27177,14 @@
       </c>
       <c r="F152" s="56"/>
       <c r="G152" s="57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H152" s="58"/>
       <c r="I152" s="58"/>
       <c r="J152" s="58"/>
       <c r="K152" s="59"/>
       <c r="L152" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M152" s="58"/>
       <c r="N152" s="58"/>
@@ -27217,14 +27238,14 @@
       </c>
       <c r="F153" s="56"/>
       <c r="G153" s="493" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H153" s="58"/>
       <c r="I153" s="58"/>
       <c r="J153" s="58"/>
       <c r="K153" s="59"/>
       <c r="L153" s="60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M153" s="58"/>
       <c r="N153" s="58"/>
@@ -30986,7 +31007,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -31004,7 +31025,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -31104,7 +31125,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -31120,7 +31141,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -31772,7 +31793,7 @@
       <c r="Y41" s="261"/>
       <c r="Z41" s="262"/>
       <c r="AA41" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB41" s="245"/>
       <c r="AC41" s="245"/>
@@ -31790,7 +31811,7 @@
       </c>
       <c r="AN41" s="281"/>
       <c r="AO41" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP41" s="285"/>
       <c r="AQ41" s="286"/>
@@ -31892,7 +31913,7 @@
       <c r="Y43" s="258"/>
       <c r="Z43" s="259"/>
       <c r="AA43" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB43" s="255"/>
       <c r="AC43" s="255"/>
@@ -31908,7 +31929,7 @@
       <c r="AK43" s="282"/>
       <c r="AL43" s="281"/>
       <c r="AM43" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN43" s="255"/>
       <c r="AO43" s="255"/>
@@ -32041,7 +32062,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E49" s="82"/>
       <c r="F49" s="82"/>
@@ -32053,14 +32074,14 @@
       <c r="L49" s="83"/>
       <c r="M49" s="84"/>
       <c r="N49" s="83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O49" s="83"/>
       <c r="P49" s="83"/>
       <c r="Q49" s="83"/>
       <c r="R49" s="84"/>
       <c r="S49" s="82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T49" s="159"/>
       <c r="U49" s="162"/>
@@ -32101,7 +32122,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E50" s="93"/>
       <c r="F50" s="93"/>
@@ -32113,14 +32134,14 @@
       <c r="L50" s="94"/>
       <c r="M50" s="95"/>
       <c r="N50" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O50" s="97"/>
       <c r="P50" s="94"/>
       <c r="Q50" s="94"/>
       <c r="R50" s="95"/>
       <c r="S50" s="93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T50" s="160"/>
       <c r="U50" s="163"/>
@@ -32161,7 +32182,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E51" s="93"/>
       <c r="F51" s="93"/>
@@ -32173,14 +32194,14 @@
       <c r="L51" s="94"/>
       <c r="M51" s="95"/>
       <c r="N51" s="83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O51" s="97"/>
       <c r="P51" s="94"/>
       <c r="Q51" s="94"/>
       <c r="R51" s="95"/>
       <c r="S51" s="93" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T51" s="160"/>
       <c r="U51" s="163"/>
@@ -32221,7 +32242,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="93"/>
       <c r="F52" s="93"/>
@@ -32233,14 +32254,14 @@
       <c r="L52" s="94"/>
       <c r="M52" s="95"/>
       <c r="N52" s="83" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="94"/>
       <c r="Q52" s="94"/>
       <c r="R52" s="95"/>
       <c r="S52" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T52" s="160"/>
       <c r="U52" s="163"/>
@@ -32281,7 +32302,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E53" s="93"/>
       <c r="F53" s="93"/>
@@ -32293,14 +32314,14 @@
       <c r="L53" s="94"/>
       <c r="M53" s="95"/>
       <c r="N53" s="83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O53" s="97"/>
       <c r="P53" s="94"/>
       <c r="Q53" s="94"/>
       <c r="R53" s="95"/>
       <c r="S53" s="93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T53" s="160"/>
       <c r="U53" s="163"/>
@@ -32317,7 +32338,7 @@
       <c r="AF53" s="93"/>
       <c r="AG53" s="98"/>
       <c r="AH53" s="82" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AI53" s="93"/>
       <c r="AJ53" s="93"/>
@@ -32525,7 +32546,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E58" s="82"/>
       <c r="F58" s="82"/>
@@ -32533,7 +32554,7 @@
       <c r="H58" s="83"/>
       <c r="I58" s="84"/>
       <c r="J58" s="85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K58" s="83"/>
       <c r="L58" s="83"/>
@@ -32551,7 +32572,7 @@
       </c>
       <c r="U58" s="88"/>
       <c r="V58" s="83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W58" s="82"/>
       <c r="X58" s="82"/>
@@ -32588,7 +32609,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E59" s="93"/>
       <c r="F59" s="93"/>
@@ -32596,7 +32617,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="95"/>
       <c r="J59" s="96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K59" s="94"/>
       <c r="L59" s="94"/>
@@ -32614,7 +32635,7 @@
       </c>
       <c r="U59" s="100"/>
       <c r="V59" s="94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W59" s="93"/>
       <c r="X59" s="93"/>
@@ -32652,7 +32673,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E60" s="93"/>
       <c r="F60" s="93"/>
@@ -32660,7 +32681,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="95"/>
       <c r="J60" s="96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K60" s="94"/>
       <c r="L60" s="94"/>
@@ -32678,7 +32699,7 @@
       </c>
       <c r="U60" s="100"/>
       <c r="V60" s="94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W60" s="93"/>
       <c r="X60" s="93"/>
@@ -32833,7 +32854,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E64" s="109"/>
       <c r="F64" s="109"/>
@@ -32845,7 +32866,7 @@
       <c r="L64" s="109"/>
       <c r="M64" s="110"/>
       <c r="N64" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O64" s="109"/>
       <c r="P64" s="109"/>
@@ -32890,7 +32911,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E65" s="184"/>
       <c r="F65" s="184"/>
@@ -32902,7 +32923,7 @@
       <c r="L65" s="184"/>
       <c r="M65" s="185"/>
       <c r="N65" s="83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O65" s="184"/>
       <c r="P65" s="184"/>
@@ -33126,7 +33147,7 @@
       <c r="Y69" s="261"/>
       <c r="Z69" s="262"/>
       <c r="AA69" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB69" s="245"/>
       <c r="AC69" s="245"/>
@@ -33144,7 +33165,7 @@
       </c>
       <c r="AN69" s="281"/>
       <c r="AO69" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP69" s="285"/>
       <c r="AQ69" s="286"/>
@@ -33244,7 +33265,7 @@
       <c r="Y71" s="258"/>
       <c r="Z71" s="259"/>
       <c r="AA71" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB71" s="255"/>
       <c r="AC71" s="255"/>
@@ -33260,7 +33281,7 @@
       <c r="AK71" s="282"/>
       <c r="AL71" s="281"/>
       <c r="AM71" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN71" s="255"/>
       <c r="AO71" s="255"/>
@@ -33418,7 +33439,7 @@
     <row r="77" spans="1:49" ht="13.5" customHeight="1">
       <c r="A77" s="21"/>
       <c r="C77" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
@@ -33451,7 +33472,7 @@
     <row r="78" spans="1:49" ht="13.5" customHeight="1">
       <c r="A78" s="21"/>
       <c r="D78" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
@@ -33484,7 +33505,7 @@
     <row r="79" spans="1:49" ht="13.5" customHeight="1">
       <c r="A79" s="21"/>
       <c r="D79" s="187" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
@@ -33609,7 +33630,7 @@
     <row r="83" spans="1:49" ht="13.5" customHeight="1">
       <c r="A83" s="21"/>
       <c r="C83" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
@@ -33642,7 +33663,7 @@
     <row r="84" spans="1:49" ht="13.5" customHeight="1">
       <c r="A84" s="21"/>
       <c r="D84" s="115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
@@ -33764,7 +33785,7 @@
     <row r="88" spans="1:49" ht="13.5" customHeight="1">
       <c r="A88" s="21"/>
       <c r="C88" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
@@ -33797,7 +33818,7 @@
     <row r="89" spans="1:49" ht="13.5" customHeight="1">
       <c r="A89" s="21"/>
       <c r="D89" s="115" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
@@ -33829,7 +33850,7 @@
     <row r="90" spans="1:49" ht="13.5" customHeight="1">
       <c r="A90" s="21"/>
       <c r="D90" s="115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
@@ -33951,7 +33972,7 @@
     <row r="94" spans="1:49" ht="13.5" customHeight="1">
       <c r="A94" s="21"/>
       <c r="C94" s="187" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
@@ -33984,7 +34005,7 @@
     <row r="95" spans="1:49" ht="13.5" customHeight="1">
       <c r="A95" s="21"/>
       <c r="D95" s="115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
@@ -34016,7 +34037,7 @@
     <row r="96" spans="1:49" ht="13.5" customHeight="1">
       <c r="A96" s="21"/>
       <c r="D96" s="115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
@@ -34078,7 +34099,7 @@
     <row r="98" spans="1:49" ht="13.5" customHeight="1">
       <c r="A98" s="21"/>
       <c r="C98" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
@@ -34111,7 +34132,7 @@
     <row r="99" spans="1:49" ht="13.5" customHeight="1">
       <c r="A99" s="21"/>
       <c r="D99" s="115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
@@ -34143,7 +34164,7 @@
     <row r="100" spans="1:49" ht="13.5" customHeight="1">
       <c r="A100" s="21"/>
       <c r="D100" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="23"/>
@@ -34205,7 +34226,7 @@
     <row r="102" spans="1:49" ht="13.5" customHeight="1">
       <c r="A102" s="21"/>
       <c r="C102" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
@@ -34238,7 +34259,7 @@
     <row r="103" spans="1:49" ht="13.5" customHeight="1">
       <c r="A103" s="21"/>
       <c r="D103" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="23"/>
@@ -34549,7 +34570,7 @@
       <c r="Y112" s="261"/>
       <c r="Z112" s="262"/>
       <c r="AA112" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB112" s="245"/>
       <c r="AC112" s="245"/>
@@ -34567,7 +34588,7 @@
       </c>
       <c r="AN112" s="281"/>
       <c r="AO112" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP112" s="285"/>
       <c r="AQ112" s="286"/>
@@ -34667,7 +34688,7 @@
       <c r="Y114" s="258"/>
       <c r="Z114" s="259"/>
       <c r="AA114" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB114" s="255"/>
       <c r="AC114" s="255"/>
@@ -34683,7 +34704,7 @@
       <c r="AK114" s="282"/>
       <c r="AL114" s="281"/>
       <c r="AM114" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN114" s="255"/>
       <c r="AO114" s="255"/>
@@ -34795,7 +34816,7 @@
     <row r="118" spans="1:49" ht="13.5" customHeight="1">
       <c r="A118" s="21"/>
       <c r="D118" s="236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E118" s="113"/>
       <c r="F118" s="23"/>
@@ -34846,7 +34867,7 @@
     <row r="119" spans="1:49" ht="13.5" customHeight="1">
       <c r="A119" s="21"/>
       <c r="C119" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D119" s="23"/>
       <c r="E119" s="113"/>
@@ -34898,7 +34919,7 @@
     <row r="120" spans="1:49" ht="13.5" customHeight="1">
       <c r="A120" s="21"/>
       <c r="D120" s="236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E120" s="113"/>
       <c r="F120" s="23"/>
@@ -34949,7 +34970,7 @@
     <row r="121" spans="1:49" ht="13.5" customHeight="1">
       <c r="A121" s="21"/>
       <c r="C121" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D121" s="23"/>
       <c r="E121" s="113"/>
@@ -35001,7 +35022,7 @@
     <row r="122" spans="1:49" ht="13.5" customHeight="1">
       <c r="A122" s="21"/>
       <c r="D122" s="236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E122" s="113"/>
       <c r="F122" s="23"/>
@@ -35052,7 +35073,7 @@
     <row r="123" spans="1:49" ht="13.5" customHeight="1">
       <c r="A123" s="21"/>
       <c r="C123" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D123" s="23"/>
       <c r="E123" s="113"/>
@@ -35104,7 +35125,7 @@
     <row r="124" spans="1:49" ht="13.5" customHeight="1">
       <c r="A124" s="21"/>
       <c r="D124" s="236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E124" s="113"/>
       <c r="F124" s="23"/>
@@ -35155,7 +35176,7 @@
     <row r="125" spans="1:49" ht="13.5" customHeight="1">
       <c r="A125" s="21"/>
       <c r="C125" s="187" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D125" s="23"/>
       <c r="E125" s="113"/>
@@ -35207,7 +35228,7 @@
     <row r="126" spans="1:49" ht="13.5" customHeight="1">
       <c r="A126" s="21"/>
       <c r="D126" s="236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E126" s="113"/>
       <c r="F126" s="23"/>
@@ -35258,7 +35279,7 @@
     <row r="127" spans="1:49" ht="13.5" customHeight="1">
       <c r="A127" s="21"/>
       <c r="C127" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D127" s="23"/>
       <c r="E127" s="113"/>
@@ -35310,7 +35331,7 @@
     <row r="128" spans="1:49" ht="13.5" customHeight="1">
       <c r="A128" s="21"/>
       <c r="D128" s="236" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E128" s="118"/>
       <c r="F128" s="12"/>
@@ -35361,7 +35382,7 @@
     <row r="129" spans="1:49" ht="13.5" customHeight="1">
       <c r="A129" s="23"/>
       <c r="C129" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D129" s="236"/>
       <c r="E129" s="118"/>
@@ -35659,7 +35680,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -35677,7 +35698,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -35793,7 +35814,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -35809,7 +35830,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -36272,7 +36293,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="82"/>
       <c r="H11" s="82"/>
@@ -36282,7 +36303,7 @@
       <c r="L11" s="83"/>
       <c r="M11" s="84"/>
       <c r="N11" s="111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O11" s="109"/>
       <c r="P11" s="109"/>
@@ -36339,7 +36360,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="93"/>
       <c r="H12" s="93"/>
@@ -36349,7 +36370,7 @@
       <c r="L12" s="94"/>
       <c r="M12" s="95"/>
       <c r="N12" s="143" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O12" s="144"/>
       <c r="P12" s="144"/>
@@ -36406,7 +36427,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G13" s="93"/>
       <c r="H13" s="93"/>
@@ -36416,7 +36437,7 @@
       <c r="L13" s="94"/>
       <c r="M13" s="95"/>
       <c r="N13" s="143" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O13" s="144"/>
       <c r="P13" s="144"/>
@@ -36473,7 +36494,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="174"/>
       <c r="H14" s="174"/>
@@ -36483,7 +36504,7 @@
       <c r="L14" s="175"/>
       <c r="M14" s="176"/>
       <c r="N14" s="143" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O14" s="144"/>
       <c r="P14" s="144"/>
@@ -36540,7 +36561,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="174"/>
       <c r="H15" s="174"/>
@@ -36550,7 +36571,7 @@
       <c r="L15" s="175"/>
       <c r="M15" s="176"/>
       <c r="N15" s="143" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O15" s="144"/>
       <c r="P15" s="144"/>
@@ -36663,7 +36684,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="115"/>
       <c r="E17" s="193" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" s="167"/>
       <c r="G17" s="167"/>
@@ -36725,7 +36746,7 @@
       <c r="D18" s="115"/>
       <c r="E18" s="166"/>
       <c r="F18" s="194" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G18" s="167"/>
       <c r="H18" s="167"/>
@@ -36979,7 +37000,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="82"/>
@@ -36989,7 +37010,7 @@
       <c r="L22" s="83"/>
       <c r="M22" s="84"/>
       <c r="N22" s="111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O22" s="109"/>
       <c r="P22" s="109"/>
@@ -37007,7 +37028,7 @@
       <c r="AB22" s="109"/>
       <c r="AC22" s="110"/>
       <c r="AD22" s="109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AE22" s="109"/>
       <c r="AF22" s="109"/>
@@ -37048,7 +37069,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G23" s="93"/>
       <c r="H23" s="93"/>
@@ -37058,7 +37079,7 @@
       <c r="L23" s="94"/>
       <c r="M23" s="95"/>
       <c r="N23" s="143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O23" s="144"/>
       <c r="P23" s="144"/>
@@ -37076,7 +37097,7 @@
       <c r="AB23" s="144"/>
       <c r="AC23" s="145"/>
       <c r="AD23" s="109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AE23" s="144"/>
       <c r="AF23" s="144"/>
@@ -37117,7 +37138,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G24" s="174"/>
       <c r="H24" s="174"/>
@@ -37127,7 +37148,7 @@
       <c r="L24" s="175"/>
       <c r="M24" s="176"/>
       <c r="N24" s="143" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O24" s="144"/>
       <c r="P24" s="144"/>
@@ -37145,7 +37166,7 @@
       <c r="AB24" s="144"/>
       <c r="AC24" s="145"/>
       <c r="AD24" s="109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AE24" s="144"/>
       <c r="AF24" s="144"/>
@@ -37377,7 +37398,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G28" s="109"/>
       <c r="H28" s="109"/>
@@ -37387,7 +37408,7 @@
       <c r="L28" s="109"/>
       <c r="M28" s="110"/>
       <c r="N28" s="111" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O28" s="109"/>
       <c r="P28" s="109"/>
@@ -37446,7 +37467,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H29" s="144"/>
       <c r="I29" s="144"/>
@@ -37455,7 +37476,7 @@
       <c r="L29" s="144"/>
       <c r="M29" s="145"/>
       <c r="N29" s="111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O29" s="144"/>
       <c r="P29" s="144"/>
@@ -37570,7 +37591,7 @@
       <c r="C31" s="19"/>
       <c r="D31" s="23"/>
       <c r="E31" s="119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -37631,7 +37652,7 @@
       <c r="C32" s="19"/>
       <c r="D32" s="23"/>
       <c r="E32" s="119" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -37883,7 +37904,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -37901,7 +37922,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -38017,7 +38038,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -38033,7 +38054,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -38178,7 +38199,7 @@
       <c r="A6" s="21"/>
       <c r="B6" s="28"/>
       <c r="C6" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="113"/>
@@ -38240,7 +38261,7 @@
       <c r="B7" s="28"/>
       <c r="C7" s="19"/>
       <c r="D7" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" s="113"/>
       <c r="F7" s="23"/>
@@ -38301,7 +38322,7 @@
       <c r="B8" s="28"/>
       <c r="C8" s="19"/>
       <c r="D8" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="113"/>
       <c r="F8" s="20"/>
@@ -38778,7 +38799,7 @@
       <c r="E16" s="113"/>
       <c r="F16" s="20"/>
       <c r="G16" s="411" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="411"/>
       <c r="I16" s="411"/>
@@ -38896,7 +38917,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="193" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="23"/>
@@ -38958,7 +38979,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="208"/>
       <c r="F19" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -39486,7 +39507,7 @@
     </row>
     <row r="28" spans="1:58" ht="13.5" customHeight="1">
       <c r="L28" s="411" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M28" s="411"/>
       <c r="N28" s="411"/>
@@ -39499,17 +39520,17 @@
     </row>
     <row r="29" spans="1:58" ht="13.5" customHeight="1">
       <c r="E29" s="193" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:58" ht="13.5" customHeight="1">
       <c r="F30" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="13:21" ht="13.5" customHeight="1">
       <c r="M38" s="411" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N38" s="411"/>
       <c r="O38" s="411"/>
@@ -39603,7 +39624,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -39621,7 +39642,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -39737,7 +39758,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -39753,7 +39774,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -39898,7 +39919,7 @@
       <c r="A6" s="21"/>
       <c r="B6" s="28"/>
       <c r="C6" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="113"/>
@@ -39960,7 +39981,7 @@
       <c r="B7" s="28"/>
       <c r="C7" s="19"/>
       <c r="D7" s="115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="113"/>
       <c r="F7" s="23"/>
@@ -40503,7 +40524,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="411" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P16" s="411"/>
       <c r="Q16" s="411"/>
@@ -40554,7 +40575,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="23"/>
       <c r="E17" s="119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -40615,7 +40636,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="23"/>
       <c r="E18" s="119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -40677,7 +40698,7 @@
       <c r="D19" s="23"/>
       <c r="E19" s="119"/>
       <c r="F19" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -41161,7 +41182,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" s="411" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q27" s="411"/>
       <c r="R27" s="411"/>
@@ -42192,7 +42213,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -42210,7 +42231,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -42326,7 +42347,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -42342,7 +42363,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -42487,7 +42508,7 @@
       <c r="A6" s="21"/>
       <c r="B6" s="28"/>
       <c r="C6" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="113"/>
@@ -42549,7 +42570,7 @@
       <c r="B7" s="28"/>
       <c r="C7" s="19"/>
       <c r="D7" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="113"/>
       <c r="F7" s="23"/>
@@ -43161,7 +43182,7 @@
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
       <c r="X17" s="411" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y17" s="411"/>
       <c r="Z17" s="411"/>
@@ -43204,7 +43225,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="113"/>
       <c r="F18" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -43266,7 +43287,7 @@
       <c r="E19" s="113"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -43326,7 +43347,7 @@
       <c r="D20" s="23"/>
       <c r="E20" s="113"/>
       <c r="F20" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -43388,7 +43409,7 @@
       <c r="E21" s="113"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -43791,7 +43812,7 @@
     </row>
     <row r="31" spans="1:58" ht="13.5" customHeight="1">
       <c r="S31" s="411" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T31" s="411"/>
       <c r="U31" s="411"/>
@@ -43885,7 +43906,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -43903,7 +43924,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -44019,7 +44040,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -44035,7 +44056,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -44180,7 +44201,7 @@
       <c r="A6" s="21"/>
       <c r="B6" s="28"/>
       <c r="C6" s="187" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="113"/>
@@ -44242,7 +44263,7 @@
       <c r="B7" s="28"/>
       <c r="C7" s="19"/>
       <c r="D7" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="113"/>
       <c r="F7" s="23"/>
@@ -44854,7 +44875,7 @@
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
       <c r="X17" s="411" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y17" s="411"/>
       <c r="Z17" s="411"/>
@@ -44897,7 +44918,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="113"/>
       <c r="F18" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -44959,7 +44980,7 @@
       <c r="E19" s="113"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
@@ -45019,7 +45040,7 @@
       <c r="D20" s="23"/>
       <c r="E20" s="113"/>
       <c r="F20" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -45081,7 +45102,7 @@
       <c r="E21" s="113"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
@@ -45484,7 +45505,7 @@
     </row>
     <row r="32" spans="1:58" ht="13.5" customHeight="1">
       <c r="X32" s="411" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y32" s="411"/>
       <c r="Z32" s="411"/>
@@ -45582,7 +45603,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -45600,7 +45621,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -45716,7 +45737,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -45732,7 +45753,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -45877,7 +45898,7 @@
       <c r="A6" s="21"/>
       <c r="B6" s="28"/>
       <c r="C6" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="113"/>
@@ -45939,7 +45960,7 @@
       <c r="B7" s="28"/>
       <c r="C7" s="19"/>
       <c r="D7" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="113"/>
       <c r="F7" s="23"/>
@@ -46549,7 +46570,7 @@
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
       <c r="V17" s="411" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W17" s="411"/>
       <c r="X17" s="411"/>
@@ -46703,7 +46724,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="23"/>
       <c r="E20" s="119" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -46764,7 +46785,7 @@
       <c r="D21" s="23"/>
       <c r="E21" s="119"/>
       <c r="F21" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -46814,7 +46835,7 @@
       <c r="A22" s="21"/>
       <c r="D22" s="23"/>
       <c r="E22" s="119" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -46866,7 +46887,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="113"/>
       <c r="F23" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -47022,7 +47043,7 @@
     </row>
     <row r="31" spans="1:58" ht="13.5" customHeight="1">
       <c r="U31" s="411" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V31" s="411"/>
       <c r="W31" s="411"/>
@@ -47063,10 +47084,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED81419-6D1F-3C4D-A365-6F7970C1E995}">
-  <dimension ref="A1:BF50"/>
+  <dimension ref="A1:BF51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="112" zoomScaleNormal="113" zoomScaleSheetLayoutView="142" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="112" zoomScaleNormal="113" zoomScaleSheetLayoutView="142" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -47114,7 +47135,7 @@
       <c r="Y1" s="261"/>
       <c r="Z1" s="262"/>
       <c r="AA1" s="266" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB1" s="245"/>
       <c r="AC1" s="245"/>
@@ -47132,7 +47153,7 @@
       </c>
       <c r="AN1" s="281"/>
       <c r="AO1" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AP1" s="285"/>
       <c r="AQ1" s="286"/>
@@ -47248,7 +47269,7 @@
       <c r="Y3" s="258"/>
       <c r="Z3" s="259"/>
       <c r="AA3" s="254" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB3" s="255"/>
       <c r="AC3" s="255"/>
@@ -47264,7 +47285,7 @@
       <c r="AK3" s="282"/>
       <c r="AL3" s="281"/>
       <c r="AM3" s="254" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN3" s="255"/>
       <c r="AO3" s="255"/>
@@ -47408,7 +47429,7 @@
     <row r="6" spans="1:58" ht="13.5" customHeight="1">
       <c r="A6" s="21"/>
       <c r="C6" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="113"/>
@@ -47672,7 +47693,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="133"/>
       <c r="H11" s="133"/>
@@ -47682,7 +47703,7 @@
       <c r="L11" s="134"/>
       <c r="M11" s="135"/>
       <c r="N11" s="146" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O11" s="133"/>
       <c r="P11" s="133"/>
@@ -47706,7 +47727,7 @@
       <c r="AH11" s="136"/>
       <c r="AI11" s="141"/>
       <c r="AJ11" s="242" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AK11" s="137"/>
       <c r="AL11" s="137"/>
@@ -47730,7 +47751,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="126"/>
       <c r="H12" s="126"/>
@@ -47740,7 +47761,7 @@
       <c r="L12" s="127"/>
       <c r="M12" s="128"/>
       <c r="N12" s="125" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
@@ -47764,7 +47785,7 @@
       <c r="AH12" s="129"/>
       <c r="AI12" s="142"/>
       <c r="AJ12" s="242" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AK12" s="130"/>
       <c r="AL12" s="130"/>
@@ -47788,7 +47809,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G13" s="126"/>
       <c r="H13" s="126"/>
@@ -47798,7 +47819,7 @@
       <c r="L13" s="127"/>
       <c r="M13" s="128"/>
       <c r="N13" s="146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
@@ -47822,7 +47843,7 @@
       <c r="AH13" s="129"/>
       <c r="AI13" s="142"/>
       <c r="AJ13" s="242" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AK13" s="130"/>
       <c r="AL13" s="130"/>
@@ -47846,7 +47867,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="203"/>
       <c r="H14" s="203"/>
@@ -47856,7 +47877,7 @@
       <c r="L14" s="150"/>
       <c r="M14" s="204"/>
       <c r="N14" s="146" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O14" s="203"/>
       <c r="P14" s="203"/>
@@ -47880,7 +47901,7 @@
       <c r="AH14" s="151"/>
       <c r="AI14" s="152"/>
       <c r="AJ14" s="242" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AK14" s="205"/>
       <c r="AL14" s="205"/>
@@ -47904,7 +47925,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="203"/>
       <c r="H15" s="203"/>
@@ -47914,7 +47935,7 @@
       <c r="L15" s="150"/>
       <c r="M15" s="204"/>
       <c r="N15" s="146" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O15" s="203"/>
       <c r="P15" s="203"/>
@@ -47938,7 +47959,7 @@
       <c r="AH15" s="151"/>
       <c r="AI15" s="152"/>
       <c r="AJ15" s="242" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AK15" s="205"/>
       <c r="AL15" s="205"/>
@@ -48018,7 +48039,7 @@
       <c r="B17" s="28"/>
       <c r="C17" s="19"/>
       <c r="D17" s="119" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" s="118"/>
       <c r="F17" s="115"/>
@@ -48080,7 +48101,7 @@
       <c r="C18" s="19"/>
       <c r="D18" s="119"/>
       <c r="E18" s="219" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -48142,7 +48163,7 @@
       <c r="D19" s="119"/>
       <c r="E19" s="27"/>
       <c r="F19" s="219" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -48320,7 +48341,7 @@
       <c r="C22" s="19"/>
       <c r="D22" s="119"/>
       <c r="E22" s="119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="115"/>
       <c r="G22" s="23"/>
@@ -48392,7 +48413,7 @@
       <c r="L23" s="413"/>
       <c r="M23" s="414"/>
       <c r="N23" s="412" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O23" s="413"/>
       <c r="P23" s="413"/>
@@ -48444,7 +48465,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="119"/>
       <c r="E24" s="354" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F24" s="355"/>
       <c r="G24" s="355"/>
@@ -48455,7 +48476,7 @@
       <c r="L24" s="355"/>
       <c r="M24" s="456"/>
       <c r="N24" s="243" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O24" s="72"/>
       <c r="P24" s="72"/>
@@ -48466,7 +48487,7 @@
       <c r="U24" s="72"/>
       <c r="V24" s="72"/>
       <c r="W24" s="72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X24" s="72"/>
       <c r="Y24" s="72"/>
@@ -48518,7 +48539,7 @@
       <c r="L25" s="459"/>
       <c r="M25" s="324"/>
       <c r="N25" s="243" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O25" s="460"/>
       <c r="P25" s="460"/>
@@ -48529,7 +48550,7 @@
       <c r="U25" s="460"/>
       <c r="V25" s="460"/>
       <c r="W25" s="460" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X25" s="460"/>
       <c r="Y25" s="460"/>
@@ -48581,7 +48602,7 @@
       <c r="L26" s="459"/>
       <c r="M26" s="324"/>
       <c r="N26" s="243" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O26" s="460"/>
       <c r="P26" s="460"/>
@@ -48592,7 +48613,7 @@
       <c r="U26" s="460"/>
       <c r="V26" s="460"/>
       <c r="W26" s="460" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="X26" s="460"/>
       <c r="Y26" s="460"/>
@@ -48644,7 +48665,7 @@
       <c r="L27" s="465"/>
       <c r="M27" s="386"/>
       <c r="N27" s="466" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O27" s="467"/>
       <c r="P27" s="467"/>
@@ -48655,7 +48676,7 @@
       <c r="U27" s="467"/>
       <c r="V27" s="467"/>
       <c r="W27" s="467" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="X27" s="467"/>
       <c r="Y27" s="467"/>
@@ -48701,7 +48722,7 @@
       <c r="F28" s="471"/>
       <c r="G28" s="241"/>
       <c r="H28" s="241" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I28" s="241"/>
       <c r="J28" s="241"/>
@@ -48709,7 +48730,7 @@
       <c r="L28" s="241"/>
       <c r="M28" s="241"/>
       <c r="N28" s="243" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O28" s="72"/>
       <c r="P28" s="72"/>
@@ -48720,7 +48741,7 @@
       <c r="U28" s="72"/>
       <c r="V28" s="72"/>
       <c r="W28" s="72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X28" s="72"/>
       <c r="Y28" s="72"/>
@@ -48772,7 +48793,7 @@
       <c r="L29" s="473"/>
       <c r="M29" s="473"/>
       <c r="N29" s="243" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O29" s="460"/>
       <c r="P29" s="460"/>
@@ -48783,7 +48804,7 @@
       <c r="U29" s="460"/>
       <c r="V29" s="460"/>
       <c r="W29" s="460" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X29" s="460"/>
       <c r="Y29" s="460"/>
@@ -48835,7 +48856,7 @@
       <c r="L30" s="475"/>
       <c r="M30" s="475"/>
       <c r="N30" s="466" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O30" s="467"/>
       <c r="P30" s="467"/>
@@ -48846,7 +48867,7 @@
       <c r="U30" s="467"/>
       <c r="V30" s="467"/>
       <c r="W30" s="467" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X30" s="467"/>
       <c r="Y30" s="467"/>
@@ -49007,7 +49028,7 @@
       <c r="C33" s="19"/>
       <c r="D33" s="119"/>
       <c r="E33" s="198" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F33" s="198"/>
       <c r="G33" s="198"/>
@@ -49078,7 +49099,7 @@
       <c r="K34" s="229"/>
       <c r="L34" s="230"/>
       <c r="M34" s="132" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N34" s="134"/>
       <c r="O34" s="134"/>
@@ -49131,7 +49152,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="119"/>
       <c r="E35" s="147" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F35" s="148"/>
       <c r="G35" s="148"/>
@@ -49141,7 +49162,7 @@
       <c r="K35" s="147"/>
       <c r="L35" s="149"/>
       <c r="M35" s="150" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N35" s="150"/>
       <c r="O35" s="150"/>
@@ -49263,7 +49284,7 @@
       <c r="K37" s="229"/>
       <c r="L37" s="230"/>
       <c r="M37" s="132" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N37" s="134"/>
       <c r="O37" s="134"/>
@@ -49324,7 +49345,7 @@
       <c r="K38" s="478"/>
       <c r="L38" s="479"/>
       <c r="M38" s="480" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N38" s="481"/>
       <c r="O38" s="481"/>
@@ -49377,7 +49398,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="119"/>
       <c r="E39" s="147" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F39" s="148"/>
       <c r="G39" s="148"/>
@@ -49387,7 +49408,7 @@
       <c r="K39" s="147"/>
       <c r="L39" s="149"/>
       <c r="M39" s="150" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N39" s="150"/>
       <c r="O39" s="150"/>
@@ -49680,13 +49701,13 @@
       <c r="C44" s="19"/>
       <c r="D44" s="119"/>
       <c r="E44" s="221" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="222"/>
       <c r="G44" s="222"/>
       <c r="H44" s="223"/>
       <c r="I44" s="406" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J44" s="407"/>
       <c r="K44" s="407"/>
@@ -49745,13 +49766,13 @@
       <c r="C45" s="19"/>
       <c r="D45" s="119"/>
       <c r="E45" s="416" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="417"/>
       <c r="G45" s="417"/>
       <c r="H45" s="418"/>
       <c r="I45" s="231" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J45" s="224"/>
       <c r="K45" s="224"/>
@@ -49780,7 +49801,7 @@
       <c r="AH45" s="224"/>
       <c r="AI45" s="226"/>
       <c r="AJ45" s="232" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AK45" s="224"/>
       <c r="AL45" s="224"/>
@@ -49809,54 +49830,52 @@
       <c r="B46" s="28"/>
       <c r="C46" s="19"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="485" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="486"/>
-      <c r="G46" s="486"/>
-      <c r="H46" s="487"/>
-      <c r="I46" s="488" t="s">
-        <v>209</v>
-      </c>
-      <c r="J46" s="489"/>
-      <c r="K46" s="489"/>
-      <c r="L46" s="489"/>
-      <c r="M46" s="489"/>
-      <c r="N46" s="489"/>
-      <c r="O46" s="489"/>
-      <c r="P46" s="489"/>
-      <c r="Q46" s="489"/>
-      <c r="R46" s="489"/>
-      <c r="S46" s="489"/>
-      <c r="T46" s="489"/>
-      <c r="U46" s="489"/>
-      <c r="V46" s="489"/>
-      <c r="W46" s="489"/>
-      <c r="X46" s="489"/>
-      <c r="Y46" s="489"/>
-      <c r="Z46" s="489"/>
-      <c r="AA46" s="489"/>
-      <c r="AB46" s="489"/>
-      <c r="AC46" s="489"/>
-      <c r="AD46" s="489"/>
-      <c r="AE46" s="490"/>
-      <c r="AF46" s="489"/>
-      <c r="AG46" s="489"/>
-      <c r="AH46" s="489"/>
-      <c r="AI46" s="491"/>
-      <c r="AJ46" s="492" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK46" s="489"/>
-      <c r="AL46" s="489"/>
-      <c r="AM46" s="489"/>
-      <c r="AN46" s="489"/>
-      <c r="AO46" s="489"/>
-      <c r="AP46" s="489"/>
-      <c r="AQ46" s="489"/>
-      <c r="AR46" s="489"/>
-      <c r="AS46" s="489"/>
-      <c r="AT46" s="491"/>
+      <c r="E46" s="494"/>
+      <c r="F46" s="495"/>
+      <c r="G46" s="495"/>
+      <c r="H46" s="496"/>
+      <c r="I46" s="231" t="s">
+        <v>221</v>
+      </c>
+      <c r="J46" s="224"/>
+      <c r="K46" s="224"/>
+      <c r="L46" s="224"/>
+      <c r="M46" s="224"/>
+      <c r="N46" s="224"/>
+      <c r="O46" s="224"/>
+      <c r="P46" s="224"/>
+      <c r="Q46" s="224"/>
+      <c r="R46" s="224"/>
+      <c r="S46" s="224"/>
+      <c r="T46" s="224"/>
+      <c r="U46" s="224"/>
+      <c r="V46" s="224"/>
+      <c r="W46" s="224"/>
+      <c r="X46" s="224"/>
+      <c r="Y46" s="224"/>
+      <c r="Z46" s="224"/>
+      <c r="AA46" s="224"/>
+      <c r="AB46" s="224"/>
+      <c r="AC46" s="224"/>
+      <c r="AD46" s="224"/>
+      <c r="AE46" s="225"/>
+      <c r="AF46" s="224"/>
+      <c r="AG46" s="224"/>
+      <c r="AH46" s="224"/>
+      <c r="AI46" s="226"/>
+      <c r="AJ46" s="232" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK46" s="224"/>
+      <c r="AL46" s="224"/>
+      <c r="AM46" s="224"/>
+      <c r="AN46" s="224"/>
+      <c r="AO46" s="224"/>
+      <c r="AP46" s="224"/>
+      <c r="AQ46" s="224"/>
+      <c r="AR46" s="224"/>
+      <c r="AS46" s="224"/>
+      <c r="AT46" s="226"/>
       <c r="AU46" s="12"/>
       <c r="AV46" s="23"/>
       <c r="AW46" s="153"/>
@@ -49873,52 +49892,58 @@
       <c r="A47" s="21"/>
       <c r="B47" s="28"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="12"/>
-      <c r="AE47"/>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="12"/>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12"/>
-      <c r="AJ47" s="12"/>
-      <c r="AK47" s="12"/>
-      <c r="AL47" s="12"/>
-      <c r="AM47" s="12"/>
-      <c r="AN47" s="12"/>
-      <c r="AO47" s="12"/>
-      <c r="AP47" s="12"/>
-      <c r="AQ47" s="12"/>
-      <c r="AR47" s="12"/>
-      <c r="AS47" s="12"/>
-      <c r="AT47" s="12"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="485" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="486"/>
+      <c r="G47" s="486"/>
+      <c r="H47" s="487"/>
+      <c r="I47" s="488" t="s">
+        <v>207</v>
+      </c>
+      <c r="J47" s="489"/>
+      <c r="K47" s="489"/>
+      <c r="L47" s="489"/>
+      <c r="M47" s="489"/>
+      <c r="N47" s="489"/>
+      <c r="O47" s="489"/>
+      <c r="P47" s="489"/>
+      <c r="Q47" s="489"/>
+      <c r="R47" s="489"/>
+      <c r="S47" s="489"/>
+      <c r="T47" s="489"/>
+      <c r="U47" s="489"/>
+      <c r="V47" s="489"/>
+      <c r="W47" s="489"/>
+      <c r="X47" s="489"/>
+      <c r="Y47" s="489"/>
+      <c r="Z47" s="489"/>
+      <c r="AA47" s="489"/>
+      <c r="AB47" s="489"/>
+      <c r="AC47" s="489"/>
+      <c r="AD47" s="489"/>
+      <c r="AE47" s="490"/>
+      <c r="AF47" s="489"/>
+      <c r="AG47" s="489"/>
+      <c r="AH47" s="489"/>
+      <c r="AI47" s="491"/>
+      <c r="AJ47" s="492" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK47" s="489"/>
+      <c r="AL47" s="489"/>
+      <c r="AM47" s="489"/>
+      <c r="AN47" s="489"/>
+      <c r="AO47" s="489"/>
+      <c r="AP47" s="489"/>
+      <c r="AQ47" s="489"/>
+      <c r="AR47" s="489"/>
+      <c r="AS47" s="489"/>
+      <c r="AT47" s="491"/>
       <c r="AU47" s="12"/>
       <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
+      <c r="AW47" s="153"/>
       <c r="AY47" s="20"/>
       <c r="AZ47" s="20"/>
       <c r="BA47" s="20"/>
@@ -49932,8 +49957,8 @@
       <c r="A48" s="21"/>
       <c r="B48" s="28"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="118"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="220"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -49977,7 +50002,7 @@
       <c r="AT48" s="12"/>
       <c r="AU48" s="12"/>
       <c r="AV48" s="23"/>
-      <c r="AW48" s="153"/>
+      <c r="AW48" s="23"/>
       <c r="AY48" s="20"/>
       <c r="AZ48" s="20"/>
       <c r="BA48" s="20"/>
@@ -49988,55 +50013,55 @@
       <c r="BF48" s="20"/>
     </row>
     <row r="49" spans="1:58" s="77" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="19"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="28"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="19"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="19"/>
-      <c r="AB49" s="19"/>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="19"/>
-      <c r="AF49" s="19"/>
-      <c r="AG49" s="19"/>
-      <c r="AH49" s="19"/>
-      <c r="AI49" s="19"/>
-      <c r="AJ49" s="19"/>
-      <c r="AK49" s="19"/>
-      <c r="AL49" s="19"/>
-      <c r="AM49" s="19"/>
-      <c r="AN49" s="19"/>
-      <c r="AO49" s="19"/>
-      <c r="AP49" s="19"/>
-      <c r="AQ49" s="19"/>
-      <c r="AR49" s="19"/>
-      <c r="AS49" s="19"/>
-      <c r="AT49" s="19"/>
-      <c r="AU49" s="19"/>
-      <c r="AV49" s="19"/>
-      <c r="AW49" s="19"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="23"/>
+      <c r="AW49" s="153"/>
       <c r="AY49" s="20"/>
       <c r="AZ49" s="20"/>
       <c r="BA49" s="20"/>
@@ -50105,13 +50130,72 @@
       <c r="BE50" s="20"/>
       <c r="BF50" s="20"/>
     </row>
+    <row r="51" spans="1:58" s="77" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A51" s="19"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="19"/>
+      <c r="AL51" s="19"/>
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="19"/>
+      <c r="AQ51" s="19"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19"/>
+      <c r="AU51" s="19"/>
+      <c r="AV51" s="19"/>
+      <c r="AW51" s="19"/>
+      <c r="AY51" s="20"/>
+      <c r="AZ51" s="20"/>
+      <c r="BA51" s="20"/>
+      <c r="BB51" s="20"/>
+      <c r="BC51" s="20"/>
+      <c r="BD51" s="20"/>
+      <c r="BE51" s="20"/>
+      <c r="BF51" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="E24:M27"/>
     <mergeCell ref="I44:AI44"/>
     <mergeCell ref="AJ44:AT44"/>
     <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
     <mergeCell ref="E23:M23"/>
     <mergeCell ref="N23:AU23"/>
     <mergeCell ref="A1:I3"/>
